--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.678101666666667</v>
+        <v>13.35945066666667</v>
       </c>
       <c r="H2">
-        <v>5.034305</v>
+        <v>40.078352</v>
       </c>
       <c r="I2">
-        <v>0.005570428513731072</v>
+        <v>0.04266941919869369</v>
       </c>
       <c r="J2">
-        <v>0.005570428513731072</v>
+        <v>0.0426694191986937</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N2">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O2">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P2">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q2">
-        <v>24.43639564668</v>
+        <v>200.8811255842205</v>
       </c>
       <c r="R2">
-        <v>219.92756082012</v>
+        <v>1807.930130257984</v>
       </c>
       <c r="S2">
-        <v>0.001950639872146724</v>
+        <v>0.01191101523630552</v>
       </c>
       <c r="T2">
-        <v>0.001950639872146724</v>
+        <v>0.01191101523630552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.678101666666667</v>
+        <v>13.35945066666667</v>
       </c>
       <c r="H3">
-        <v>5.034305</v>
+        <v>40.078352</v>
       </c>
       <c r="I3">
-        <v>0.005570428513731072</v>
+        <v>0.04266941919869369</v>
       </c>
       <c r="J3">
-        <v>0.005570428513731072</v>
+        <v>0.0426694191986937</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q3">
-        <v>24.16492802132889</v>
+        <v>192.3781914869049</v>
       </c>
       <c r="R3">
-        <v>217.48435219196</v>
+        <v>1731.403723382144</v>
       </c>
       <c r="S3">
-        <v>0.001928969917965949</v>
+        <v>0.01140684354127006</v>
       </c>
       <c r="T3">
-        <v>0.001928969917965949</v>
+        <v>0.01140684354127006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.678101666666667</v>
+        <v>13.35945066666667</v>
       </c>
       <c r="H4">
-        <v>5.034305</v>
+        <v>40.078352</v>
       </c>
       <c r="I4">
-        <v>0.005570428513731072</v>
+        <v>0.04266941919869369</v>
       </c>
       <c r="J4">
-        <v>0.005570428513731072</v>
+        <v>0.0426694191986937</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N4">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q4">
-        <v>16.33727176801222</v>
+        <v>296.1591513237085</v>
       </c>
       <c r="R4">
-        <v>147.03544591211</v>
+        <v>2665.432361913376</v>
       </c>
       <c r="S4">
-        <v>0.001304125787352414</v>
+        <v>0.01756041615920285</v>
       </c>
       <c r="T4">
-        <v>0.001304125787352414</v>
+        <v>0.01756041615920285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.678101666666667</v>
+        <v>13.35945066666667</v>
       </c>
       <c r="H5">
-        <v>5.034305</v>
+        <v>40.078352</v>
       </c>
       <c r="I5">
-        <v>0.005570428513731072</v>
+        <v>0.04266941919869369</v>
       </c>
       <c r="J5">
-        <v>0.005570428513731072</v>
+        <v>0.0426694191986937</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N5">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O5">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P5">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q5">
-        <v>4.84424712080389</v>
+        <v>30.20792671984355</v>
       </c>
       <c r="R5">
-        <v>43.598224087235</v>
+        <v>271.871340478592</v>
       </c>
       <c r="S5">
-        <v>0.0003866929362659856</v>
+        <v>0.00179114426191527</v>
       </c>
       <c r="T5">
-        <v>0.0003866929362659855</v>
+        <v>0.00179114426191527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>726.097488</v>
       </c>
       <c r="I6">
-        <v>0.8034225480783753</v>
+        <v>0.7730397221570005</v>
       </c>
       <c r="J6">
-        <v>0.8034225480783752</v>
+        <v>0.7730397221570006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N6">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O6">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P6">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q6">
-        <v>3524.459780412288</v>
+        <v>3639.353251683478</v>
       </c>
       <c r="R6">
-        <v>31720.13802371059</v>
+        <v>32754.1792651513</v>
       </c>
       <c r="S6">
-        <v>0.2813406639364079</v>
+        <v>0.2157912641370874</v>
       </c>
       <c r="T6">
-        <v>0.2813406639364078</v>
+        <v>0.2157912641370873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>726.097488</v>
       </c>
       <c r="I7">
-        <v>0.8034225480783753</v>
+        <v>0.7730397221570005</v>
       </c>
       <c r="J7">
-        <v>0.8034225480783752</v>
+        <v>0.7730397221570006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q7">
         <v>3485.306022179371</v>
@@ -883,10 +883,10 @@
         <v>31367.75419961434</v>
       </c>
       <c r="S7">
-        <v>0.2782152078315957</v>
+        <v>0.2066572108884421</v>
       </c>
       <c r="T7">
-        <v>0.2782152078315957</v>
+        <v>0.2066572108884421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>726.097488</v>
       </c>
       <c r="I8">
-        <v>0.8034225480783753</v>
+        <v>0.7730397221570005</v>
       </c>
       <c r="J8">
-        <v>0.8034225480783752</v>
+        <v>0.7730397221570006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N8">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q8">
-        <v>2356.323661662731</v>
+        <v>5365.50045332095</v>
       </c>
       <c r="R8">
-        <v>21206.91295496458</v>
+        <v>48289.50407988855</v>
       </c>
       <c r="S8">
-        <v>0.1880939788575801</v>
+        <v>0.3181411765990728</v>
       </c>
       <c r="T8">
-        <v>0.1880939788575801</v>
+        <v>0.3181411765990728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>726.097488</v>
       </c>
       <c r="I9">
-        <v>0.8034225480783753</v>
+        <v>0.7730397221570005</v>
       </c>
       <c r="J9">
-        <v>0.8034225480783752</v>
+        <v>0.7730397221570006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N9">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O9">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P9">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q9">
-        <v>698.6854522455308</v>
+        <v>547.2754894953387</v>
       </c>
       <c r="R9">
-        <v>6288.169070209777</v>
+        <v>4925.479405458048</v>
       </c>
       <c r="S9">
-        <v>0.05577269745279165</v>
+        <v>0.03245007053239842</v>
       </c>
       <c r="T9">
-        <v>0.05577269745279163</v>
+        <v>0.03245007053239842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.947608</v>
+        <v>10.23810666666667</v>
       </c>
       <c r="H10">
-        <v>8.842824</v>
+        <v>30.71432</v>
       </c>
       <c r="I10">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291218</v>
       </c>
       <c r="J10">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N10">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O10">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P10">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q10">
-        <v>42.922855468224</v>
+        <v>153.9466286726044</v>
       </c>
       <c r="R10">
-        <v>386.305699214016</v>
+        <v>1385.51965805344</v>
       </c>
       <c r="S10">
-        <v>0.003426324999533398</v>
+        <v>0.009128088238078334</v>
       </c>
       <c r="T10">
-        <v>0.003426324999533398</v>
+        <v>0.009128088238078334</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.947608</v>
+        <v>10.23810666666667</v>
       </c>
       <c r="H11">
-        <v>8.842824</v>
+        <v>30.71432</v>
       </c>
       <c r="I11">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291218</v>
       </c>
       <c r="J11">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q11">
-        <v>42.44601895699201</v>
+        <v>147.4303467954489</v>
       </c>
       <c r="R11">
-        <v>382.0141706129281</v>
+        <v>1326.87312115904</v>
       </c>
       <c r="S11">
-        <v>0.003388261435464741</v>
+        <v>0.008741712800878184</v>
       </c>
       <c r="T11">
-        <v>0.003388261435464741</v>
+        <v>0.008741712800878185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.947608</v>
+        <v>10.23810666666667</v>
       </c>
       <c r="H12">
-        <v>8.842824</v>
+        <v>30.71432</v>
       </c>
       <c r="I12">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291218</v>
       </c>
       <c r="J12">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N12">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q12">
-        <v>28.696636156272</v>
+        <v>226.9635973226845</v>
       </c>
       <c r="R12">
-        <v>258.269725406448</v>
+        <v>2042.67237590416</v>
       </c>
       <c r="S12">
-        <v>0.00229071437098444</v>
+        <v>0.01345754539126078</v>
       </c>
       <c r="T12">
-        <v>0.00229071437098444</v>
+        <v>0.01345754539126078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.947608</v>
+        <v>10.23810666666667</v>
       </c>
       <c r="H13">
-        <v>8.842824</v>
+        <v>30.71432</v>
       </c>
       <c r="I13">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291218</v>
       </c>
       <c r="J13">
-        <v>0.009784532115456941</v>
+        <v>0.03270000212291219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N13">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O13">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P13">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q13">
-        <v>8.508984795672001</v>
+        <v>23.15005187363555</v>
       </c>
       <c r="R13">
-        <v>76.58086316104801</v>
+        <v>208.35046686272</v>
       </c>
       <c r="S13">
-        <v>0.000679231309474362</v>
+        <v>0.001372655692694884</v>
       </c>
       <c r="T13">
-        <v>0.0006792313094743619</v>
+        <v>0.001372655692694884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.59360333333333</v>
+        <v>47.46187333333333</v>
       </c>
       <c r="H14">
-        <v>163.78081</v>
+        <v>142.38562</v>
       </c>
       <c r="I14">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="J14">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N14">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O14">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P14">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q14">
-        <v>794.98812100056</v>
+        <v>713.6666600614489</v>
       </c>
       <c r="R14">
-        <v>7154.89308900504</v>
+        <v>6422.99994055304</v>
       </c>
       <c r="S14">
-        <v>0.06346007607375535</v>
+        <v>0.0423160435651348</v>
       </c>
       <c r="T14">
-        <v>0.06346007607375534</v>
+        <v>0.0423160435651348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.59360333333333</v>
+        <v>47.46187333333333</v>
       </c>
       <c r="H15">
-        <v>163.78081</v>
+        <v>142.38562</v>
       </c>
       <c r="I15">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="J15">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>43.200472</v>
       </c>
       <c r="O15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q15">
-        <v>786.1564773935912</v>
+        <v>683.4584433347378</v>
       </c>
       <c r="R15">
-        <v>7075.408296542321</v>
+        <v>6151.125990012641</v>
       </c>
       <c r="S15">
-        <v>0.06275508846406735</v>
+        <v>0.04052488210759596</v>
       </c>
       <c r="T15">
-        <v>0.06275508846406735</v>
+        <v>0.04052488210759596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.59360333333333</v>
+        <v>47.46187333333333</v>
       </c>
       <c r="H16">
-        <v>163.78081</v>
+        <v>142.38562</v>
       </c>
       <c r="I16">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="J16">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N16">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q16">
-        <v>531.4997012209578</v>
+        <v>1052.159140173729</v>
       </c>
       <c r="R16">
-        <v>4783.49731098862</v>
+        <v>9469.432261563559</v>
       </c>
       <c r="S16">
-        <v>0.04242706347638176</v>
+        <v>0.0623865657521576</v>
       </c>
       <c r="T16">
-        <v>0.04242706347638175</v>
+        <v>0.06238656575215759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.59360333333333</v>
+        <v>47.46187333333333</v>
       </c>
       <c r="H17">
-        <v>163.78081</v>
+        <v>142.38562</v>
       </c>
       <c r="I17">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="J17">
-        <v>0.1812224912924368</v>
+        <v>0.1515908565213935</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N17">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O17">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P17">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q17">
-        <v>157.5976658715411</v>
+        <v>107.3191426363911</v>
       </c>
       <c r="R17">
-        <v>1418.37899284387</v>
+        <v>965.8722837275199</v>
       </c>
       <c r="S17">
-        <v>0.01258026327823235</v>
+        <v>0.006363365096505166</v>
       </c>
       <c r="T17">
-        <v>0.01258026327823234</v>
+        <v>0.006363365096505165</v>
       </c>
     </row>
   </sheetData>
